--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T07:10:55+00:00</t>
+    <t>2022-09-14T07:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T07:39:51+00:00</t>
+    <t>2022-09-26T10:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:10:35+00:00</t>
+    <t>2022-09-26T10:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:51:47+00:00</t>
+    <t>2022-09-26T11:09:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturationExt.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T11:09:39+00:00</t>
+    <t>2022-10-24T08:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,63 +244,63 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Flow</t>
@@ -920,7 +920,7 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>71</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -939,25 +939,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1008,31 +1008,31 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1051,16 +1051,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1098,19 +1098,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1122,15 +1122,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1155,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>26</v>
@@ -1212,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1224,7 +1224,7 @@
         <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>71</v>
@@ -1243,25 +1243,25 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1312,22 +1312,22 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1355,7 +1355,7 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>26</v>
@@ -1400,19 +1400,19 @@
         <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1424,7 +1424,7 @@
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -1440,10 +1440,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1517,10 +1517,10 @@
         <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1545,7 +1545,7 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1620,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>110</v>
@@ -1659,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>26</v>
@@ -1716,7 +1716,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -1728,7 +1728,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -1747,25 +1747,25 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1816,22 +1816,22 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -1859,7 +1859,7 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>26</v>
@@ -1904,19 +1904,19 @@
         <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -1928,7 +1928,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -1944,10 +1944,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2021,10 +2021,10 @@
         <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2049,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2124,7 +2124,7 @@
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>112</v>
@@ -2163,7 +2163,7 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>26</v>
@@ -2220,7 +2220,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2232,7 +2232,7 @@
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>71</v>
@@ -2251,25 +2251,25 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="K16" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2320,22 +2320,22 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -2363,7 +2363,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>26</v>
@@ -2408,19 +2408,19 @@
         <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -2432,7 +2432,7 @@
         <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
@@ -2448,10 +2448,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2525,10 +2525,10 @@
         <v>102</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2553,7 +2553,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2628,7 +2628,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>113</v>
@@ -2667,7 +2667,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>26</v>
@@ -2724,7 +2724,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -2736,7 +2736,7 @@
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>71</v>
@@ -2755,25 +2755,25 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J21" t="s" s="2">
+      <c r="K21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2824,22 +2824,22 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2867,7 +2867,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>26</v>
@@ -2912,19 +2912,19 @@
         <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -2936,7 +2936,7 @@
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>71</v>
@@ -2952,10 +2952,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3029,10 +3029,10 @@
         <v>102</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3057,19 +3057,19 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>106</v>
@@ -3132,7 +3132,7 @@
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3154,10 +3154,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3231,10 +3231,10 @@
         <v>102</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3334,7 +3334,7 @@
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
